--- a/Doc/2.UI/経理DB/画面遷移図_経理DB.xlsx
+++ b/Doc/2.UI/経理DB/画面遷移図_経理DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" checkCompatibility="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1830" windowWidth="20355" windowHeight="14970" tabRatio="770"/>
+    <workbookView xWindow="240" yWindow="2430" windowWidth="20355" windowHeight="14970" tabRatio="770"/>
   </bookViews>
   <sheets>
     <sheet name="新規・修正" sheetId="55" r:id="rId1"/>
@@ -2109,13 +2109,16 @@
               </a:rPr>
               <a:t>DB</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（新規・修正）</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2536,7 +2539,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'新規修正（図）'!A2:M14" spid="_x0000_s56375"/>
+                  <a14:cameraTool cellRange="'新規修正（図）'!A2:M14" spid="_x0000_s56376"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7310,13 +7313,26 @@
               </a:rPr>
               <a:t>DB</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（削除</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7737,7 +7753,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'削除（図）'!A2:M14" spid="_x0000_s59397"/>
+                  <a14:cameraTool cellRange="'削除（図）'!A2:M14" spid="_x0000_s59398"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9600,13 +9616,16 @@
               </a:rPr>
               <a:t>DB</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（閲覧）</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10027,7 +10046,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'閲覧（図）'!A2:J12" spid="_x0000_s61444"/>
+                  <a14:cameraTool cellRange="'閲覧（図）'!A2:J12" spid="_x0000_s61445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11890,13 +11909,16 @@
               </a:rPr>
               <a:t>DB</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（給与振込口座一覧）</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -12317,7 +12339,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'給与振込口座一覧（図）'!A2:G15" spid="_x0000_s65539"/>
+                  <a14:cameraTool cellRange="'給与振込口座一覧（図）'!A2:G15" spid="_x0000_s65540"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14180,13 +14202,16 @@
               </a:rPr>
               <a:t>DB</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（一括削除）</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -14607,7 +14632,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'一括削除（図）'!A2:G14" spid="_x0000_s67587"/>
+                  <a14:cameraTool cellRange="'一括削除（図）'!A2:G14" spid="_x0000_s67588"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -23586,9 +23611,7 @@
   </sheetPr>
   <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE13" sqref="BE13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
@@ -26186,9 +26209,7 @@
   </sheetPr>
   <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE13" sqref="BE13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
@@ -31386,9 +31407,7 @@
   </sheetPr>
   <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE13" sqref="BE13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
